--- a/Top (version 1).xlsx
+++ b/Top (version 1).xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\git\ns-project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0447E0B9-BFAA-4AD1-A13D-D056F167A7DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2D2BD-1CDB-4082-B7AB-4A620D7BF93D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="11550" xr2:uid="{DAE53E0A-6A05-4D41-9D1F-4972FBFE7488}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11746" xr2:uid="{DAE53E0A-6A05-4D41-9D1F-4972FBFE7488}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Area</t>
   </si>
@@ -155,6 +154,42 @@
   </si>
   <si>
     <t>ccr</t>
+  </si>
+  <si>
+    <t>DBLP Conference</t>
+  </si>
+  <si>
+    <t>nips</t>
+  </si>
+  <si>
+    <t>sigcomm</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>kdd</t>
+  </si>
+  <si>
+    <t>ccs</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>podc</t>
+  </si>
+  <si>
+    <t>siggraph</t>
+  </si>
+  <si>
+    <t>recomb</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>icse</t>
   </si>
 </sst>
 </file>
@@ -524,19 +559,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54268E5D-2F4B-46C0-BD24-65ED2E7F2031}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.265625" customWidth="1"/>
     <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +586,11 @@
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -560,8 +600,11 @@
       <c r="D2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -571,8 +614,11 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -582,8 +628,11 @@
       <c r="D4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -593,8 +642,11 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -604,8 +656,14 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -615,24 +673,39 @@
       <c r="D7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -645,45 +718,63 @@
       <c r="D10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
